--- a/Paperwork/Test Cases/Track Search Test Cases.xlsx
+++ b/Paperwork/Test Cases/Track Search Test Cases.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tzd_files_7\smu\480\IS480 FYP test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tzd_files_7\smu\480\ChickenDinner\Paperwork\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358B9DBD-B454-4A21-A545-E163906AB2DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC474DB3-FD47-40B5-AF2A-1D42C4232C25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{1649C0AD-CF71-468F-895E-FFB5727DA0B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1649C0AD-CF71-468F-895E-FFB5727DA0B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="25-12-2018" sheetId="1" r:id="rId1"/>
+    <sheet name="21-2-2019 (deployed)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>S/N</t>
   </si>
@@ -73,18 +73,6 @@
   </si>
   <si>
     <t>May be conducted with other tracks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upon login, select the Financial Technology track from the drop-down list to view it. </t>
-  </si>
-  <si>
-    <t>TestCourseList.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Track page is shown with the following courses:
- - Digital Banking Enterprise Architecture, 
- - Retail Banking &amp; Mobile Technology 
-with all skills under the Unachieved Skills section. </t>
   </si>
   <si>
     <t>Verify that Skill Analysis takes into account courses already taken by user at the Track View page</t>
@@ -108,9 +96,6 @@
 2. Click on the course "Digital Banking Enterprise Architecture" to access its course page.</t>
   </si>
   <si>
-    <t>Notes - Current test cases reflect usage only, i.e. checking for whether things appear in the right places or at all are not written as test cases. Because skill rankings reliant on the method used to rank, and there's not any particular source of truth to verify it with, and hence no test cases are unavailable.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that user with sufficient skills can view a list of suitable future jobs </t>
   </si>
   <si>
@@ -155,6 +140,28 @@
   </si>
   <si>
     <t>Career pathway to desired job is shown.</t>
+  </si>
+  <si>
+    <t>Notes - Current test cases reflect usage only, i.e. checking for whether things appear in the right places or at all are not written as test cases. Because skill rankings reliant on the method used to rank, and there's not any particular source of truth to verify it with, and hence no test cases are available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon login, select the CyberSecurity track from the drop-down list to view it. </t>
+  </si>
+  <si>
+    <t>Track page is shown with the following courses:
+IS403 Network Security
+IS436 Data Security &amp; Privacy
+IS437 Software &amp; Systems Security
+Isxxx Strategic Cybersecurity Management</t>
+  </si>
+  <si>
+    <t>Correct data is shown.</t>
+  </si>
+  <si>
+    <t>ZD</t>
+  </si>
+  <si>
+    <t>A list of jobs is shown.</t>
   </si>
 </sst>
 </file>
@@ -185,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +211,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -313,13 +326,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -334,16 +347,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -358,35 +368,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,7 +717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DAC2EA-BAE8-404D-876B-83DBCF856640}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -726,7 +741,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.3">
@@ -771,18 +786,22 @@
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="13">
+        <v>43517</v>
+      </c>
       <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
@@ -795,20 +814,24 @@
         <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="13">
+        <v>43517</v>
+      </c>
       <c r="J5" s="10" t="s">
         <v>13</v>
       </c>
@@ -821,20 +844,24 @@
         <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="13">
+        <v>43517</v>
+      </c>
       <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
@@ -847,22 +874,28 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="G7" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="13">
+        <v>43517</v>
+      </c>
       <c r="J7" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -873,22 +906,22 @@
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -899,61 +932,61 @@
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="F10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
-        <v>5</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="19" t="s">
-        <v>26</v>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="26"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
